--- a/Shared/report.xlsx
+++ b/Shared/report.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="AnalysisResults" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="367">
   <si>
     <t xml:space="preserve">SampleNumber</t>
   </si>
@@ -992,6 +992,9 @@
   </si>
   <si>
     <t xml:space="preserve">ULSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22/011/2018</t>
   </si>
   <si>
     <t xml:space="preserve">241335</t>
@@ -1336,11 +1339,17 @@
   </sheetPr>
   <dimension ref="A1:FY21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="CI13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="CP16" activeCellId="0" sqref="CP16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="93" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="94" min="94" style="0" width="18.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="95" min="95" style="0" width="13.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="96" style="0" width="8.67"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -4800,7 +4809,7 @@
       <c r="FV15" s="2"/>
       <c r="FY15" s="2"/>
     </row>
-    <row r="16" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
         <v>315</v>
       </c>
@@ -4898,7 +4907,7 @@
         <v>316</v>
       </c>
       <c r="CP16" s="4" t="n">
-        <v>41780</v>
+        <v>43241</v>
       </c>
       <c r="CQ16" s="2" t="s">
         <v>185</v>
@@ -5005,7 +5014,7 @@
       <c r="FV16" s="2"/>
       <c r="FY16" s="2"/>
     </row>
-    <row r="17" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
         <v>322</v>
       </c>
@@ -5102,17 +5111,17 @@
       <c r="CO17" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="CP17" s="4" t="n">
-        <v>41781</v>
+      <c r="CP17" s="4" t="s">
+        <v>324</v>
       </c>
       <c r="CQ17" s="2" t="s">
         <v>185</v>
       </c>
       <c r="CR17" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="CS17" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="CT17" s="4" t="n">
         <v>41786.5048611111</v>
@@ -5132,7 +5141,7 @@
         <v>358.6</v>
       </c>
       <c r="DB17" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="DC17" s="2" t="s">
         <v>236</v>
@@ -5144,23 +5153,23 @@
         <v>41782</v>
       </c>
       <c r="DP17" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="DQ17" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="DR17" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="DS17" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="DT17" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="DV17" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="DW17" s="2"/>
       <c r="DX17" s="4" t="n">
@@ -5222,9 +5231,9 @@
       <c r="FV17" s="2"/>
       <c r="FY17" s="2"/>
     </row>
-    <row r="18" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B18" s="3" t="n">
         <v>990.8</v>
@@ -5320,16 +5329,16 @@
         <v>293</v>
       </c>
       <c r="CP18" s="4" t="n">
-        <v>41781</v>
+        <v>43488</v>
       </c>
       <c r="CQ18" s="2" t="s">
         <v>185</v>
       </c>
       <c r="CR18" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="CS18" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="CT18" s="4" t="n">
         <v>41787.5083333333</v>
@@ -5349,7 +5358,7 @@
         <v>380</v>
       </c>
       <c r="DB18" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="DC18" s="2" t="s">
         <v>236</v>
@@ -5361,16 +5370,16 @@
         <v>41786</v>
       </c>
       <c r="DP18" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="DQ18" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="DR18" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="DS18" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="DT18" s="3" t="n">
         <f aca="false">FALSE()</f>
@@ -5439,9 +5448,9 @@
       <c r="FV18" s="2"/>
       <c r="FY18" s="2"/>
     </row>
-    <row r="19" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B19" s="3" t="n">
         <v>990.8</v>
@@ -5534,19 +5543,19 @@
         <v>183</v>
       </c>
       <c r="CO19" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="CP19" s="4" t="n">
-        <v>41782</v>
+        <v>43519</v>
       </c>
       <c r="CQ19" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="CR19" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="CS19" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="CT19" s="4" t="n">
         <v>41788</v>
@@ -5563,7 +5572,7 @@
         <v>129</v>
       </c>
       <c r="DB19" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="DC19" s="2"/>
       <c r="DG19" s="3" t="n">
@@ -5573,23 +5582,23 @@
         <v>41786</v>
       </c>
       <c r="DP19" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="DQ19" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="DR19" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="DS19" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="DT19" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="DV19" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="DW19" s="2"/>
       <c r="DX19" s="4" t="n">
@@ -5644,9 +5653,9 @@
       <c r="FV19" s="2"/>
       <c r="FY19" s="2"/>
     </row>
-    <row r="20" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B20" s="3" t="n">
         <v>989</v>
@@ -5739,19 +5748,19 @@
         <v>231</v>
       </c>
       <c r="CO20" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="CP20" s="4" t="n">
-        <v>41765</v>
+        <v>43530</v>
       </c>
       <c r="CQ20" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="CR20" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="CS20" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="CT20" s="4" t="n">
         <v>41788</v>
@@ -5768,7 +5777,7 @@
         <v>346</v>
       </c>
       <c r="DB20" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="DC20" s="2"/>
       <c r="DG20" s="3" t="n">
@@ -5778,11 +5787,11 @@
         <v>41786</v>
       </c>
       <c r="DP20" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="DQ20" s="2"/>
       <c r="DR20" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="DS20" s="2"/>
       <c r="DT20" s="3" t="n">
@@ -5790,7 +5799,7 @@
         <v>0</v>
       </c>
       <c r="DV20" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="DW20" s="2"/>
       <c r="DX20" s="4" t="n">
@@ -5845,9 +5854,9 @@
       <c r="FV20" s="2"/>
       <c r="FY20" s="2"/>
     </row>
-    <row r="21" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B21" s="3" t="n">
         <v>989.3</v>
@@ -5943,16 +5952,16 @@
         <v>252</v>
       </c>
       <c r="CP21" s="4" t="n">
-        <v>41787</v>
+        <v>43536</v>
       </c>
       <c r="CQ21" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="CR21" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="CS21" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="CT21" s="4" t="n">
         <v>41789</v>
@@ -5969,7 +5978,7 @@
         <v>345.8</v>
       </c>
       <c r="DB21" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="DC21" s="2"/>
       <c r="DG21" s="3" t="n">
@@ -5979,16 +5988,16 @@
         <v>41788</v>
       </c>
       <c r="DP21" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="DQ21" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="DR21" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="DS21" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="DT21" s="3" t="n">
         <f aca="false">FALSE()</f>
@@ -6053,7 +6062,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
